--- a/fastqFiles/fastq_0659.xlsx
+++ b/fastqFiles/fastq_0659.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1585C4D-7226-9E4F-8513-827BFD9B0FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD1A6C2-948D-904E-AAFC-6CA3143FBC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23380" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>libraryDate</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="2" sqref="B2 B3:B21 E2:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,7 +512,7 @@
         <v>659</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -529,7 +532,7 @@
         <v>659</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -549,7 +552,7 @@
         <v>659</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -569,7 +572,7 @@
         <v>659</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -589,7 +592,7 @@
         <v>659</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -609,7 +612,7 @@
         <v>659</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -629,7 +632,7 @@
         <v>659</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -649,7 +652,7 @@
         <v>659</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -669,7 +672,7 @@
         <v>659</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -689,7 +692,7 @@
         <v>659</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -709,7 +712,7 @@
         <v>659</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -729,7 +732,7 @@
         <v>659</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -749,7 +752,7 @@
         <v>659</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -769,7 +772,7 @@
         <v>659</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -789,7 +792,7 @@
         <v>659</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -809,7 +812,7 @@
         <v>659</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -829,7 +832,7 @@
         <v>659</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -849,7 +852,7 @@
         <v>659</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -869,7 +872,7 @@
         <v>659</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -889,7 +892,7 @@
         <v>659</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>

--- a/fastqFiles/fastq_0659.xlsx
+++ b/fastqFiles/fastq_0659.xlsx
@@ -49,64 +49,64 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_TGAGGTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GCTTAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_TTTTGTC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_ACCCACT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_CCGGACC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GTACGGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_TTGCCCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_ACTCCAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_TGTGCCA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_AACGGAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GATAGTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GGTGAAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_ATGTTCT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GTAAAAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GTCTGAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_CAATATC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_CTCCCGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_GCCGTTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_TAGGTAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0659_samples/run_659_s_3_withindex_sequence_TCGAGAT.fastq.gz</t>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_TGAGGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GCTTAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_TTTTGTC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_ACCCACT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_CCGGACC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GTACGGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_TTGCCCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_ACTCCAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_TGTGCCA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_AACGGAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GATAGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GGTGAAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_ATGTTCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GTAAAAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GTCTGAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_CAATATC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_CTCCCGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_GCCGTTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_TAGGTAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_659_s_3_withindex_sequence_TCGAGAT.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C21"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0659.xlsx
+++ b/fastqFiles/fastq_0659.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
